--- a/inst/extdata/matrix_test/stressor_magnitude_matrix.xlsx
+++ b/inst/extdata/matrix_test/stressor_magnitude_matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattj\Dropbox\Projects\EN2691 CEPopMod\main\JoeModelCE\inst\extdata\matrix_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37300C96-8B1E-4BA2-B521-CD1973C8C459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3D0FA3-6D8B-4A09-9830-92C004C35078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5C00D94F-27E3-48C9-9AD6-363C8CBE8FED}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{5C00D94F-27E3-48C9-9AD6-363C8CBE8FED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -611,7 +611,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
